--- a/notebook/results/v2/Model-v2-Results.xlsx
+++ b/notebook/results/v2/Model-v2-Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HAW\Bachelorarbeit\TranslationT5\notebook\results\v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4351BA76-734D-41C3-9E90-BB8BA290D653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36666F6-A16A-4D6D-B797-FAEE050B22E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="276" windowWidth="17640" windowHeight="8904" xr2:uid="{5C25365D-9598-4416-8DEF-A2E75805290F}"/>
+    <workbookView xWindow="4092" yWindow="312" windowWidth="17640" windowHeight="8904" xr2:uid="{5C25365D-9598-4416-8DEF-A2E75805290F}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Decoding Method</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>METEOR</t>
-  </si>
-  <si>
-    <t>not yet updated!</t>
   </si>
 </sst>
 </file>
@@ -491,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B949EC18-A32E-4E5F-A14E-B3189F3056C1}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -651,39 +648,34 @@
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>0.283959733661522</v>
+        <v>0.27102622361071599</v>
       </c>
       <c r="C5" s="1">
-        <v>53.443229036504299</v>
+        <v>51.728566721823299</v>
       </c>
       <c r="D5" s="1">
-        <v>52.246567667076</v>
+        <v>51.361448456593699</v>
       </c>
       <c r="E5" s="1">
-        <v>15.509973904627</v>
+        <v>14.736982590460901</v>
       </c>
       <c r="F5" s="1">
-        <v>15.538847615420099</v>
+        <v>14.6727066658274</v>
       </c>
       <c r="G5" s="1">
-        <v>0.63026567947001799</v>
+        <v>0.62344134866428702</v>
       </c>
       <c r="H5" s="1">
-        <v>0.492836870284456</v>
+        <v>0.48802431240231298</v>
       </c>
       <c r="I5" s="1">
-        <v>0.42355316518376601</v>
+        <v>0.41164602975507902</v>
       </c>
       <c r="J5" s="1">
-        <v>0.483226123464573</v>
+        <v>0.47286933980326401</v>
       </c>
       <c r="K5" s="1">
-        <v>0.43585330488395901</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K6" t="s">
-        <v>15</v>
+        <v>0.43068889282420297</v>
       </c>
     </row>
   </sheetData>
